--- a/game_tb/table_define/tr_game_table.xlsx
+++ b/game_tb/table_define/tr_game_table.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9360"/>
+    <workbookView windowWidth="23040" windowHeight="9360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="table_describe" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="格式说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>table_begin</t>
   </si>
@@ -67,6 +67,93 @@
   </si>
   <si>
     <t>diamond</t>
+  </si>
+  <si>
+    <t>定义数据表描述</t>
+  </si>
+  <si>
+    <r>
+      <t>table_begin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开始，放在第一列</t>
+    </r>
+  </si>
+  <si>
+    <t>表名跟随在table_begin的后一列</t>
+  </si>
+  <si>
+    <t>数据字段名定义,全部小写,单词之间用_区分开,放在第一列，后面一列描述字段数据类型(见下方)，如果是主键,后一列必须指定key来标识</t>
+  </si>
+  <si>
+    <r>
+      <t>table_end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放在第一列</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>结束表格描述,至此，一个表的代码定义结束</t>
+    </r>
+  </si>
+  <si>
+    <t>数据字段类型</t>
+  </si>
+  <si>
+    <t>对应代码int64_t类型</t>
+  </si>
+  <si>
+    <t>对应代码int32_t类型</t>
+  </si>
+  <si>
+    <t>对应代码std::string类型</t>
+  </si>
+  <si>
+    <t>目前就这几个常用的，后续可继续TODO</t>
+  </si>
+  <si>
+    <t>cpp代码生成脚本工具</t>
+  </si>
+  <si>
+    <t>gen_dbtable.py [table_name]</t>
+  </si>
+  <si>
+    <t>table_name</t>
+  </si>
+  <si>
+    <t>如果指定了表名，只生成这一个表的cpp代码文件，不给参数就生成所有表格定义的cpp代码文件</t>
   </si>
 </sst>
 </file>
@@ -75,11 +162,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,18 +197,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,22 +229,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,14 +296,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -186,24 +304,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,28 +326,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -256,6 +336,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -268,61 +402,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,103 +516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,9 +532,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,22 +580,35 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,126 +627,120 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,64 +749,31 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,7 +1134,7 @@
   <sheetPr/>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1189,14 +1269,108 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="31.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
